--- a/source/logs/resumos/12445659701_excel.xlsx
+++ b/source/logs/resumos/12445659701_excel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
   <si>
     <t>FASE</t>
   </si>
@@ -85,19 +85,25 @@
     <t>14:16:30</t>
   </si>
   <si>
+    <t>23:5:35</t>
+  </si>
+  <si>
+    <t>23:6:24</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
-    <t>13:37:31</t>
-  </si>
-  <si>
-    <t>14:18:16</t>
+    <t>13:36:39</t>
+  </si>
+  <si>
+    <t>14:17:18</t>
+  </si>
+  <si>
+    <t>14:18:17</t>
   </si>
   <si>
     <t>14:19:46</t>
-  </si>
-  <si>
-    <t>14:21:4</t>
   </si>
 </sst>
 </file>
@@ -105,11 +111,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -125,18 +138,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -157,6 +170,26 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -189,6 +222,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -212,80 +269,65 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -591,364 +633,364 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" customWidth="1"/>
-    <col min="4" max="4" width="38.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="42.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11">
         <v>12445659701</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="17">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="F3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
         <v>1</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="17">
         <v>27</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
-        <v>2</v>
-      </c>
-      <c r="B5" s="11">
-        <v>8</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="F4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>8</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="17">
         <v>30.4279999733</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>2</v>
-      </c>
-      <c r="B6" s="11">
+      <c r="F5" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
         <v>7</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="17">
         <v>25.111000060999999</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
-        <v>2</v>
-      </c>
-      <c r="B7" s="11">
+      <c r="F6" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3">
         <v>0</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="17">
         <v>-5.0001144409200001E-3</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>2</v>
-      </c>
-      <c r="B8" s="11">
+      <c r="F7" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="17">
         <v>3.9980001449599998</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <v>2</v>
-      </c>
-      <c r="B9" s="11">
+      <c r="F8" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3">
         <v>0</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="17">
         <v>7.9969999790199999</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
-        <v>2</v>
-      </c>
-      <c r="B10" s="11">
-        <v>2</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="F9" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="17">
         <v>16.9919998646</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
-        <v>2</v>
-      </c>
-      <c r="B11" s="11">
+      <c r="F10" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3">
         <v>3</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="17">
         <v>11.993999958</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
-        <v>2</v>
-      </c>
-      <c r="B12" s="11">
-        <v>269</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="F11" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="17">
         <v>25</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
-        <v>2</v>
-      </c>
-      <c r="B13" s="11">
+      <c r="F12" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3">
         <v>0</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="17">
         <v>-6.0000419616699999E-3</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
-        <v>2</v>
-      </c>
-      <c r="B14" s="11">
+      <c r="F13" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="17">
+        <v>4</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="17">
+        <v>3.99499988556</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="17">
+        <v>6</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>3</v>
+      </c>
+      <c r="B17" s="3">
+        <v>268</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="17">
+        <v>-2958</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>3</v>
+      </c>
+      <c r="B18" s="3">
         <v>547</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="8">
-        <v>4</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
-        <v>3</v>
-      </c>
-      <c r="B15" s="11">
-        <v>0</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="8">
-        <v>-2958</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
-        <v>3</v>
-      </c>
-      <c r="B16" s="11">
-        <v>128</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="8">
+      <c r="C18" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="17">
         <v>-2612</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
-        <v>3</v>
-      </c>
-      <c r="B17" s="11">
-        <v>13</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="8">
-        <v>-459</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
-        <v>3</v>
-      </c>
-      <c r="B18" s="12">
-        <v>0</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="9">
-        <v>909</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>25</v>
@@ -957,8 +999,47 @@
         <v>8</v>
       </c>
     </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>3</v>
+      </c>
+      <c r="B19" s="3">
+        <v>128</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="17">
+        <v>-459</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14">
+        <v>3</v>
+      </c>
+      <c r="B20" s="6">
+        <v>13</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="18">
+        <v>909</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>